--- a/ykodama/ddbj_packages/excel/MIMARKS.specimen.miscellaneous.4.0.xlsx
+++ b/ykodama/ddbj_packages/excel/MIMARKS.specimen.miscellaneous.4.0.xlsx
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Unique name for each sample (used as an ID)</t>
+          <t>The sample name is a name that you choose for the sample, it works as an ID.  Each sample name must be unique in samples submitted from a submission account.</t>
         </r>
       </text>
     </comment>
@@ -41,7 +41,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Unique title for each sample</t>
+          <t>Sample title should be short and informative. Each sample title must be unique in a submission.  Examples: 1) Escherichia coli O104:H4 str. C227-11 clinical isolate 2010_333_NC-6;  2) CD8+ T cells from female TSG6-knockout BALB/c mouse;  3) Human metagenome isolated from urine of healthy female.</t>
         </r>
       </text>
     </comment>
@@ -54,7 +54,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Brief description</t>
+          <t>A brief description for the sample.</t>
         </r>
       </text>
     </comment>
@@ -67,7 +67,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Organism name in the NCBI Taxonomy database</t>
+          <t>The most descriptive organism name for this sample (to the species, if relevant) in the NCBI Taxonomy database, http://www.ncbi.nlm.nih.gov/taxonomy If it is not in the database, provide as much information about the organism as possible and the DDBJ staff apply a new organism name to NCBI Taxonomy.</t>
         </r>
       </text>
     </comment>
@@ -80,7 +80,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>NCBI Taxonomy identifier</t>
+          <t>NCBI Taxonomy identifier. This is appropriate for individual organisms, some metagenomes and environmental samples (http://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=12908&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock).  If it is not in the database, enter a tentative ID (e.g., 1). The DDBJ staff apply a new organism name to NCBI Taxonomy, and then the tentative ID is replaced by an assigned TaxID.</t>
         </r>
       </text>
     </comment>
@@ -121,7 +121,7 @@
             <family val="2"/>
           </rPr>
           <t>Organism group
-Identification of the specific individual</t>
+Identification or description of the specific individual from which this sample was obtained</t>
         </r>
       </text>
     </comment>
@@ -135,7 +135,21 @@
             <family val="2"/>
           </rPr>
           <t>Organism group
-Cultivar name</t>
+Cultivar name - cultivated variety of plant</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Organism group
+a population within a given species displaying genetically based, phenotypic traits that reflect adaptation to a local habitat, e.g., Columbia</t>
         </r>
       </text>
     </comment>
@@ -148,7 +162,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Time of sampling (eg, 2008-01-23, 2008-01)</t>
+          <t>Time of sampling (single instance or interval, eg., 2008-01-23T19:23:10, 2008-01-23, 2008-01, 2008, 1952-10-21T11:43Z/1952-10-21T17:43Z, 1952-10-21/1953-02-15, 1952-10/1953-02, 1952/1953)</t>
         </r>
       </text>
     </comment>
@@ -161,7 +175,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Descriptor of the broad ecological context of a sample</t>
+          <t>Descriptor of the broad ecological context of a sample. Examples include: desert, taiga or deciduous woodland. FAQ, http://trace.ddbj.nig.ac.jp/biosample/faq_e.html#biome-feature-material EnvO (v 2013-06-14) terms can be found via the link: http://www.environmentontology.org/Browse-EnvO</t>
         </r>
       </text>
     </comment>
@@ -174,7 +188,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Descriptor of the local environment.</t>
+          <t>Descriptor of the local environment. Examples include: harbor, cliff, or lake. FAQ, http://trace.ddbj.nig.ac.jp/biosample/faq_e.html#biome-feature-material EnvO (v 2013-06-14) terms can be found via the link: http://www.environmentontology.org/Browse-EnvO</t>
         </r>
       </text>
     </comment>
@@ -187,7 +201,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Material that was displaced by the sample, or material in which a sample was embedded, prior to the sampling event.</t>
+          <t>Material that was displaced by the sample, or material in which a sample was embedded, prior to the sampling event. Examples include: air, soil, or water. FAQ, http://trace.ddbj.nig.ac.jp/biosample/faq_e.html#biome-feature-material EnvO (v 2013-06-14) terms can be found via the link: http://www.environmentontology.org/Browse-EnvO</t>
         </r>
       </text>
     </comment>
@@ -200,7 +214,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Geographical origin of the sample (eg, "Japan:Kanagawa, Hakone, Lake Ashi")</t>
+          <t xml:space="preserve">Geographical origin of the sample; use the appropriate name from the list, http://www.ddbj.nig.ac.jp/sub/country-e.html. Use a colon to separate the country or ocean from more detailed information about the location, eg "Japan:Kanagawa, Hakone, Lake Ashi" </t>
         </r>
       </text>
     </comment>
@@ -213,7 +227,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Pubmed ID, DOI or URL of publication for isolation and growth condition specifications of the organism/material</t>
+          <t>Publication reference in the form of pubmed ID, DOI or URL for isolation and growth condition specifications of the organism/material</t>
         </r>
       </text>
     </comment>
@@ -226,7 +240,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>The geographical coordinates of the location in decimal degrees latitude and longitude (eg, 47.94 N 28.12 W)</t>
+          <t>The geographical coordinates of the location where the sample was collected. Specify as decimal degrees latitude and longitude in format "d[d.dddd] N|S d[dd.dddd] W|E", eg, 47.94 N 28.12 W</t>
         </r>
       </text>
     </comment>
@@ -278,7 +292,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>amount of biomass; should include the name for the part of biomass measured</t>
+          <t>amount of biomass; should include the name for the part of biomass measured, e.g. microbial, total. can include multiple measurements</t>
         </r>
       </text>
     </comment>
@@ -291,7 +305,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Free-living or from host</t>
+          <t>Free-living or from host (define relationship)</t>
         </r>
       </text>
     </comment>
@@ -330,7 +344,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>list of chemical compounds administered to the host or site where sampling occurred, and when</t>
+          <t>list of chemical compounds administered to the host or site where sampling occurred, and when (e.g. antibiotics, N fertilizer, air filter); can include multiple compounds. For Chemical Entities of Biological Interest ontology (CHEBI) (v1.72), please see http://bioportal.bioontology.org/visualize/44603</t>
         </r>
       </text>
     </comment>
@@ -382,7 +396,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Depth is defined as the vertical distance below local surface. Depth can be reported as an interval for subsurface samples.</t>
+          <t>Depth is defined as the vertical distance below surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. Depth can be reported as an interval for subsurface samples.</t>
         </r>
       </text>
     </comment>
@@ -395,7 +409,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>concentration of diether lipids</t>
+          <t>concentration of diether lipids; can include multiple types of diether lipids</t>
         </r>
       </text>
     </comment>
@@ -447,7 +461,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>dissolved organic nitrogen concentration</t>
+          <t>dissolved organic nitrogen concentration measured as; total dissolved nitrogen - NH4 - NO3 - NO2</t>
         </r>
       </text>
     </comment>
@@ -499,7 +513,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Describes the physical, environmental and/or local geographical source of the biological sample</t>
+          <t>Describes the physical, environmental and/or local geographical source of the biological sample from which the sample was derived.</t>
         </r>
       </text>
     </comment>
@@ -603,7 +617,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>total count of any organism per gram or volume of sample, should include name of organism followed by count</t>
+          <t>total count of any organism per gram or volume of sample, should include name of organism followed by count; can include multiple organism counts</t>
         </r>
       </text>
     </comment>
@@ -629,7 +643,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>type of perturbation, e.g. chemical administration, physical disturbance, etc., coupled with time that perturbation occurred</t>
+          <t>type of perturbation, e.g. chemical administration, physical disturbance, etc., coupled with time that perturbation occurred; can include multiple perturbation types</t>
         </r>
       </text>
     </comment>
@@ -668,7 +682,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>concentration of phospholipid fatty acids</t>
+          <t>concentration of phospholipid fatty acids; can include multiple values</t>
         </r>
       </text>
     </comment>
@@ -850,7 +864,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>unique identifier assigned to a material sample used</t>
+          <t>unique identifier assigned to a material sample used for extracting nucleic acids, and subsequent sequencing. The identifier can refer either to the original material collected or to any derived sub-samples.</t>
         </r>
       </text>
     </comment>
@@ -902,7 +916,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>temperature of the sample</t>
+          <t>temperature of the sample at time of sampling</t>
         </r>
       </text>
     </comment>
@@ -916,6 +930,19 @@
             <family val="2"/>
           </rPr>
           <t>Feeding position in food chain (eg., chemolithotroph)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BS13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>measurement of magnitude and direction of flow within a fluid</t>
         </r>
       </text>
     </comment>

--- a/ykodama/ddbj_packages/excel/MIMARKS.specimen.miscellaneous.4.0.xlsx
+++ b/ykodama/ddbj_packages/excel/MIMARKS.specimen.miscellaneous.4.0.xlsx
@@ -362,6 +362,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="@"/>
+  </numFmts>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -446,7 +449,7 @@
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">

--- a/ykodama/ddbj_packages/excel/MIMARKS.specimen.miscellaneous.4.0.xlsx
+++ b/ykodama/ddbj_packages/excel/MIMARKS.specimen.miscellaneous.4.0.xlsx
@@ -244,12 +244,714 @@
         </r>
       </text>
     </comment>
+    <comment ref="R15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>alkalinity, the ability of a solution to neutralize acids to the equivalence point of carbonate or bicarbonate</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The altitude of the sample is the vertical distance between Earth's surface above Sea Level and the sampled position in the air.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>concentration of ammonium</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>amount of biomass; should include the name for the part of biomass measured, e.g. microbial, total. can include multiple measurements</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Free-living or from host (define relationship)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>concentration of bromide</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>concentration of calcium</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>list of chemical compounds administered to the host or site where sampling occurred, and when (e.g. antibiotics, N fertilizer, air filter); can include multiple compounds. For Chemical Entities of Biological Interest ontology (CHEBI) (v1.72), please see http://bioportal.bioontology.org/visualize/44603</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>concentration of chloride</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>concentration of chlorophyll</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>density of sample</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Depth is defined as the vertical distance below surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. Depth can be reported as an interval for subsurface samples.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>concentration of diether lipids; can include multiple types of diether lipids</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>concentration of dissolved carbon dioxide</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>concentration of dissolved hydrogen</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>dissolved inorganic carbon concentration</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AH15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>dissolved organic nitrogen concentration measured as; total dissolved nitrogen - NH4 - NO3 - NO2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>concentration of dissolved oxygen</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AJ15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The elevation of the sampling site as measured by the vertical distance from mean sea level.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AK15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Plasmids that have significance phenotypic consequence</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AL15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Describes the physical, environmental and/or local geographical source of the biological sample from which the sample was derived.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AM15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>any other measurement performed or parameter collected, that is not listed here</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AN15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>concentration of nitrate</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AO15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>concentration of nitrite</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AP15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>concentration of nitrogen (total)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AQ15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>concentration of organic carbon</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AR15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>concentration of organic matter</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AS15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>concentration of organic nitrogen</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AT15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>total count of any organism per gram or volume of sample, should include name of organism followed by count; can include multiple organism counts</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AU15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>oxygenation status of sample</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AV15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>type of perturbation, e.g. chemical administration, physical disturbance, etc., coupled with time that perturbation occurred; can include multiple perturbation types</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AW15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>pH measurement</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AX15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>concentration of phosphate</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AY15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>concentration of phospholipid fatty acids; can include multiple values</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AZ15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>concentration of potassium</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BA15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>pressure to which the sample is subject, in atmospheres</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BB15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Aerobic or anaerobic</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BC15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>salinity measurement</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BD15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Method or device employed for collecting sample</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BE15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Processing applied to the sample during or after isolation</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BF15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Amount or size of sample (volume, mass or area) that was collected</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BG15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>duration for which sample was stored</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BH15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>location at which sample was stored, usually name of a specific freezer/room</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BI15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>temperature at which sample was stored, e.g. -80</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BJ15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>volume (mL) or weight (g) of sample processed for DNA extraction</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BK15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>concentration of silicate</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BL15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>sodium concentration</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BM15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>unique identifier assigned to a material sample used for extracting nucleic acids, and subsequent sequencing. The identifier can refer either to the original material collected or to any derived sub-samples.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BN15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Information about the genetic distinctness of the lineage (eg., biovar, serovar)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BO15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>concentration of sulfate</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BP15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>concentration of sulfide</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BQ15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>temperature of the sample at time of sampling</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BR15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Feeding position in food chain (eg., chemolithotroph)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BS15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>measurement of magnitude and direction of flow within a fluid</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t xml:space="preserve"># This is a submission template for batch deposit of 'MIMARKS: specimen, miscellaneous; version 4.0' samples to the DDBJ BioSample database (http://trace.ddbj.nig.ac.jp/biosample)._x000D_
 </t>
@@ -356,6 +1058,168 @@
   </si>
   <si>
     <t>lat_lon</t>
+  </si>
+  <si>
+    <t>alkalinity</t>
+  </si>
+  <si>
+    <t>altitude</t>
+  </si>
+  <si>
+    <t>ammonium</t>
+  </si>
+  <si>
+    <t>biomass</t>
+  </si>
+  <si>
+    <t>biotic_relationship</t>
+  </si>
+  <si>
+    <t>bromide</t>
+  </si>
+  <si>
+    <t>calcium</t>
+  </si>
+  <si>
+    <t>chem_administration</t>
+  </si>
+  <si>
+    <t>chloride</t>
+  </si>
+  <si>
+    <t>chlorophyll</t>
+  </si>
+  <si>
+    <t>density</t>
+  </si>
+  <si>
+    <t>depth</t>
+  </si>
+  <si>
+    <t>diether_lipids</t>
+  </si>
+  <si>
+    <t>diss_carb_dioxide</t>
+  </si>
+  <si>
+    <t>diss_hydrogen</t>
+  </si>
+  <si>
+    <t>diss_inorg_carb</t>
+  </si>
+  <si>
+    <t>diss_org_nitro</t>
+  </si>
+  <si>
+    <t>diss_oxygen</t>
+  </si>
+  <si>
+    <t>elev</t>
+  </si>
+  <si>
+    <t>extrachrom_elements</t>
+  </si>
+  <si>
+    <t>isolation_source</t>
+  </si>
+  <si>
+    <t>misc_param</t>
+  </si>
+  <si>
+    <t>nitrate</t>
+  </si>
+  <si>
+    <t>nitrite</t>
+  </si>
+  <si>
+    <t>nitro</t>
+  </si>
+  <si>
+    <t>org_carb</t>
+  </si>
+  <si>
+    <t>org_matter</t>
+  </si>
+  <si>
+    <t>org_nitro</t>
+  </si>
+  <si>
+    <t>organism_count</t>
+  </si>
+  <si>
+    <t>oxy_stat_samp</t>
+  </si>
+  <si>
+    <t>perturbation</t>
+  </si>
+  <si>
+    <t>ph</t>
+  </si>
+  <si>
+    <t>phosphate</t>
+  </si>
+  <si>
+    <t>phosplipid_fatt_acid</t>
+  </si>
+  <si>
+    <t>potassium</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>rel_to_oxygen</t>
+  </si>
+  <si>
+    <t>salinity</t>
+  </si>
+  <si>
+    <t>samp_collect_device</t>
+  </si>
+  <si>
+    <t>samp_mat_process</t>
+  </si>
+  <si>
+    <t>samp_size</t>
+  </si>
+  <si>
+    <t>samp_store_dur</t>
+  </si>
+  <si>
+    <t>samp_store_loc</t>
+  </si>
+  <si>
+    <t>samp_store_temp</t>
+  </si>
+  <si>
+    <t>samp_vol_we_dna_ext</t>
+  </si>
+  <si>
+    <t>silicate</t>
+  </si>
+  <si>
+    <t>sodium</t>
+  </si>
+  <si>
+    <t>source_material_id</t>
+  </si>
+  <si>
+    <t>subspecf_gen_lin</t>
+  </si>
+  <si>
+    <t>sulfate</t>
+  </si>
+  <si>
+    <t>sulfide</t>
+  </si>
+  <si>
+    <t>temperature</t>
+  </si>
+  <si>
+    <t>trophic_level</t>
+  </si>
+  <si>
+    <t>water_current</t>
   </si>
 </sst>
 </file>
@@ -776,77 +1640,77 @@
     <col min="1" max="201" width="20.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:71">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:71">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="3" customFormat="1">
+    <row r="3" spans="1:71" s="3" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="4" customFormat="1">
+    <row r="4" spans="1:71" s="4" customFormat="1">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="5" customFormat="1">
+    <row r="5" spans="1:71" s="5" customFormat="1">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:71">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:71">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:71">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:71">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:71">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:71">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:71">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:71">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:71">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:71">
       <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
@@ -897,6 +1761,168 @@
       </c>
       <c r="Q15" s="7" t="s">
         <v>30</v>
+      </c>
+      <c r="R15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S15" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="T15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="U15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="V15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="W15" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="X15" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z15" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB15" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC15" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD15" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE15" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF15" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG15" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH15" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI15" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ15" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK15" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL15" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM15" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN15" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO15" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP15" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ15" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR15" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS15" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT15" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU15" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="AV15" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AW15" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX15" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AY15" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AZ15" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="BA15" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="BB15" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BC15" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="BD15" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="BE15" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="BF15" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="BG15" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH15" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI15" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ15" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BK15" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BL15" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="BM15" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="BN15" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="BO15" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="BP15" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="BQ15" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="BR15" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="BS15" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/ykodama/ddbj_packages/excel/MIMARKS.specimen.miscellaneous.4.0.xlsx
+++ b/ykodama/ddbj_packages/excel/MIMARKS.specimen.miscellaneous.4.0.xlsx
@@ -877,11 +877,24 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
+          <t>Identifier for the physical specimen. Use format: "[&lt;institution-code&gt;:[&lt;collection-code&gt;:]]&lt;specimen_id&gt;", eg, "UAM:Mamm:52179". Intended as a reference to the physical specimen that remains after it was analyzed. If the specimen was destroyed in the process of analysis, electronic images (e-vouchers) are an adequate substitute for a physical voucher specimen. Ideally the specimens will be deposited in a curated museum, herbarium, or frozen tissue collection, but often they will remain in a personal or laboratory collection for some time before they are deposited in a curated collection. There are three forms of specimen_voucher qualifiers. If the text of the qualifier includes one or more colons it is a 'structured voucher'. Structured vouchers include institution-codes (and optional collection-codes) taken from a controlled vocabulary maintained by the INSDC that denotes the museum or herbarium collection where the specimen resides, please visit the INSDC website, http://www.insdc.org/controlled-vocabulary-specimenvoucher-qualifier</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BO15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
           <t>Information about the genetic distinctness of the lineage (eg., biovar, serovar)</t>
         </r>
       </text>
     </comment>
-    <comment ref="BO15" authorId="0">
+    <comment ref="BP15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -894,7 +907,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BP15" authorId="0">
+    <comment ref="BQ15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -907,7 +920,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BQ15" authorId="0">
+    <comment ref="BR15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -920,7 +933,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BR15" authorId="0">
+    <comment ref="BS15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -933,7 +946,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BS15" authorId="0">
+    <comment ref="BT15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -951,7 +964,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t xml:space="preserve"># This is a submission template for batch deposit of 'MIMARKS: specimen, miscellaneous; version 4.0' samples to the DDBJ BioSample database (http://trace.ddbj.nig.ac.jp/biosample)._x000D_
 </t>
@@ -1202,6 +1215,9 @@
   </si>
   <si>
     <t>source_material_id</t>
+  </si>
+  <si>
+    <t>specimen_voucher</t>
   </si>
   <si>
     <t>subspecf_gen_lin</t>
@@ -1640,77 +1656,77 @@
     <col min="1" max="201" width="20.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:71">
+    <row r="1" spans="1:72">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:71">
+    <row r="2" spans="1:72">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:71" s="3" customFormat="1">
+    <row r="3" spans="1:72" s="3" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:71" s="4" customFormat="1">
+    <row r="4" spans="1:72" s="4" customFormat="1">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:71" s="5" customFormat="1">
+    <row r="5" spans="1:72" s="5" customFormat="1">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:71">
+    <row r="6" spans="1:72">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:71">
+    <row r="7" spans="1:72">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:71">
+    <row r="8" spans="1:72">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:71">
+    <row r="9" spans="1:72">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:71">
+    <row r="10" spans="1:72">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:71">
+    <row r="11" spans="1:72">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:71">
+    <row r="12" spans="1:72">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:71">
+    <row r="13" spans="1:72">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:71">
+    <row r="14" spans="1:72">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:71">
+    <row r="15" spans="1:72">
       <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
@@ -1923,6 +1939,9 @@
       </c>
       <c r="BS15" s="8" t="s">
         <v>84</v>
+      </c>
+      <c r="BT15" s="8" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
